--- a/biology/Zoologie/Eureptilia/Eureptilia.xlsx
+++ b/biology/Zoologie/Eureptilia/Eureptilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eureptilia (« reptiles vrais ») forment l'un des deux clades majeurs de saurospides, l'autre étant les Anapsida (ou Parareptilia). Les Eureptilia n'incluent pas seulement tous les diapsides, mais aussi nombre de formes primitives du Permien-Carbonifère autrefois placées parmi les anapsides, dans le vieil ordre des « Cotylosauria », plus reconnu aujourd'hui.
 </t>
@@ -511,11 +523,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Eureptilia est décrit en 1947 par Everett Claire Olson[1],[2].
-Cladogramme
-Cladogramme (Laurin &amp; Reisz, 1995) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Eureptilia est décrit en 1947 par Everett Claire Olson,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eureptilia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eureptilia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme (Laurin &amp; Reisz, 1995) :
 </t>
         </is>
       </c>
